--- a/Сем2/МП/Lab1/Книга1.xlsx
+++ b/Сем2/МП/Lab1/Книга1.xlsx
@@ -24,19 +24,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Время у.е</t>
   </si>
   <si>
     <t>Кол-во циклов</t>
   </si>
+  <si>
+    <t>Критерий Стъюдента =</t>
+  </si>
+  <si>
+    <t>Коэф. Корреляции =</t>
+  </si>
+  <si>
+    <t>Для Фибоначчи</t>
+  </si>
+  <si>
+    <t>Число n</t>
+  </si>
+  <si>
+    <t>Критерий Стъбдента=</t>
+  </si>
+  <si>
+    <t>Коэф. Корреляции=</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +63,34 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Nirmala UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,12 +98,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -92,10 +159,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="106"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="6"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -108,26 +175,15 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Время у.е</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst>
               <a:glow rad="139700">
-                <a:schemeClr val="accent4">
+                <a:schemeClr val="accent1">
                   <a:satMod val="175000"/>
                   <a:alpha val="14000"/>
                 </a:schemeClr>
@@ -139,7 +195,7 @@
             <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
+                <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
@@ -149,7 +205,7 @@
               </a:ln>
               <a:effectLst>
                 <a:glow rad="63500">
-                  <a:schemeClr val="accent4">
+                  <a:schemeClr val="accent1">
                     <a:satMod val="175000"/>
                     <a:alpha val="25000"/>
                   </a:schemeClr>
@@ -157,12 +213,27 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$7</c:f>
+              <c:f>Лист1!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1000000</c:v>
                 </c:pt>
@@ -180,33 +251,57 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$7</c:f>
+              <c:f>Лист1!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>67</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>134</c:v>
+                  <c:v>326</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>209</c:v>
+                  <c:v>513</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>269</c:v>
+                  <c:v>674</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>341</c:v>
+                  <c:v>887</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>408</c:v>
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1051</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1177</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1346</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -214,7 +309,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A902-4D71-A5E5-A9A22A390F25}"/>
+              <c16:uniqueId val="{00000000-C3DA-4424-8DD0-10793F216607}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -226,11 +321,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1001796367"/>
-        <c:axId val="1001805103"/>
+        <c:axId val="1968778655"/>
+        <c:axId val="1968777823"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1001796367"/>
+        <c:axId val="1968778655"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -257,8 +352,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -281,12 +377,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1001805103"/>
+        <c:crossAx val="1968777823"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1001805103"/>
+        <c:axId val="1968777823"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -342,7 +438,338 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1001796367"/>
+        <c:crossAx val="1968778655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$21:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$21:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>183</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-895D-4152-83A7-46EF9917D9EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1846921215"/>
+        <c:axId val="1846919551"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1846921215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1846919551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1846919551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1846921215"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -395,8 +822,82 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -938,20 +1439,588 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -964,7 +2033,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1236,76 +2305,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:2" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
         <v>1000000</v>
       </c>
-      <c r="B2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="B2" s="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
         <v>2000000</v>
       </c>
-      <c r="B3">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="B3" s="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
         <v>3000000</v>
       </c>
-      <c r="B4">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="B4" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
         <v>4000000</v>
       </c>
-      <c r="B5">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="B5" s="1">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
         <v>5000000</v>
       </c>
-      <c r="B6">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="B6" s="1">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
         <v>6000000</v>
       </c>
-      <c r="B7">
-        <v>408</v>
+      <c r="B7" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>7000000</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>8000000</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>9000000</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <f>_xlfn.T.TEST(A2:A11, B2:B11, 1, 1)</f>
+        <v>1.3911502709900149E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <f>CORREL(A2:A11,B2:B11)</f>
+        <v>0.98762054527434606</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>4</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>8</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>12</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>16</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>28</v>
+      </c>
+      <c r="B27" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>32</v>
+      </c>
+      <c r="B28" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>36</v>
+      </c>
+      <c r="B29" s="4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>40</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <f>_xlfn.T.TEST(A21:A30, B21:B30, 1, 1)</f>
+        <v>0.16624242187860289</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <f>CORREL(A21:A30,B21:B30)</f>
+        <v>0.59466378513284057</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>